--- a/data/Episodes.xlsx
+++ b/data/Episodes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="687" documentId="8_{469BA79E-4959-4B73-9291-827E29519869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6982438D-4C1B-436B-BF76-D522EF4637B3}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="8_{469BA79E-4959-4B73-9291-827E29519869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F8F8716-676D-4DCF-B662-7AA27B63576E}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1004,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -1043,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,6 +1067,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,10 +1108,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE7B26B6-8332-49A5-8E52-576BE4ED073C}" name="Table3" displayName="Table3" ref="A1:L113" totalsRowShown="0">
-  <autoFilter ref="A1:L113" xr:uid="{BE7B26B6-8332-49A5-8E52-576BE4ED073C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
-    <sortCondition ref="D1:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE7B26B6-8332-49A5-8E52-576BE4ED073C}" name="Table3" displayName="Table3" ref="A1:L318" totalsRowShown="0">
+  <autoFilter ref="A1:L318" xr:uid="{BE7B26B6-8332-49A5-8E52-576BE4ED073C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L318">
+    <sortCondition ref="D1:D318"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0FAAB492-45F0-4123-9866-CC6D36497A67}" name="Milestone"/>
@@ -1391,16 +1398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF8C13E-86FF-4DE2-80D0-798F990887EF}">
   <dimension ref="A1:L319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I319" sqref="I319"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.58984375" customWidth="1"/>
     <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.26953125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
@@ -1460,7 +1467,7 @@
         <v>0.625</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D33" si="0">B2+C2</f>
+        <f>B2+C2</f>
         <v>44927.625</v>
       </c>
       <c r="E2" t="s">
@@ -1486,7 +1493,7 @@
         <v>0.875</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" si="0"/>
+        <f>B3+C3</f>
         <v>44928.875</v>
       </c>
       <c r="E3" t="s">
@@ -1510,7 +1517,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" si="0"/>
+        <f>B4+C4</f>
         <v>44929.572916666664</v>
       </c>
       <c r="E4" t="s">
@@ -1531,7 +1538,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="0"/>
+        <f>B5+C5</f>
         <v>44930.666666666664</v>
       </c>
       <c r="E5" t="s">
@@ -1558,7 +1565,7 @@
         <v>0.59375</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="0"/>
+        <f>B6+C6</f>
         <v>44931.59375</v>
       </c>
       <c r="E6" t="s">
@@ -1579,7 +1586,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="0"/>
+        <f>B7+C7</f>
         <v>44931.791666666664</v>
       </c>
       <c r="E7" t="s">
@@ -1600,7 +1607,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="0"/>
+        <f>B8+C8</f>
         <v>44932.854166666664</v>
       </c>
       <c r="E8" t="s">
@@ -1627,7 +1634,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="0"/>
+        <f>B9+C9</f>
         <v>44933.854166666664</v>
       </c>
       <c r="E9" t="s">
@@ -1654,7 +1661,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="0"/>
+        <f>B10+C10</f>
         <v>44934.583333333336</v>
       </c>
       <c r="E10" t="s">
@@ -1678,7 +1685,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="0"/>
+        <f>B11+C11</f>
         <v>44935.416666666664</v>
       </c>
       <c r="E11" t="s">
@@ -1699,7 +1706,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
+        <f>B12+C12</f>
         <v>44935.583333333336</v>
       </c>
       <c r="E12" t="s">
@@ -1723,7 +1730,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
+        <f>B13+C13</f>
         <v>44935.708333333336</v>
       </c>
       <c r="E13" t="s">
@@ -1747,7 +1754,7 @@
         <v>0.875</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f>B14+C14</f>
         <v>44935.875</v>
       </c>
       <c r="E14" t="s">
@@ -1768,7 +1775,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f>B15+C15</f>
         <v>44936.916666666664</v>
       </c>
       <c r="E15" t="s">
@@ -1789,7 +1796,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f>B16+C16</f>
         <v>44958.447916666664</v>
       </c>
       <c r="E16" t="s">
@@ -1810,7 +1817,7 @@
         <v>0.59375</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f>B17+C17</f>
         <v>44958.59375</v>
       </c>
       <c r="E17" t="s">
@@ -1831,7 +1838,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f>B18+C18</f>
         <v>44959.479166666664</v>
       </c>
       <c r="E18" t="s">
@@ -1849,7 +1856,7 @@
         <v>0.625</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="0"/>
+        <f>B19+C19</f>
         <v>44959.625</v>
       </c>
       <c r="E19" t="s">
@@ -1876,7 +1883,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f>B20+C20</f>
         <v>44960.416666666664</v>
       </c>
       <c r="E20" t="s">
@@ -1897,7 +1904,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="0"/>
+        <f>B21+C21</f>
         <v>44960.604166666664</v>
       </c>
       <c r="E21" t="s">
@@ -1918,7 +1925,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="0"/>
+        <f>B22+C22</f>
         <v>44960.833333333336</v>
       </c>
       <c r="E22" t="s">
@@ -1943,7 +1950,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="11">
-        <f t="shared" si="0"/>
+        <f>B23+C23</f>
         <v>44961</v>
       </c>
       <c r="H23" s="3"/>
@@ -1959,7 +1966,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="0"/>
+        <f>B24+C24</f>
         <v>44962.604166666664</v>
       </c>
       <c r="E24" t="s">
@@ -1980,7 +1987,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="0"/>
+        <f>B25+C25</f>
         <v>44963.333333333336</v>
       </c>
       <c r="E25" t="s">
@@ -2007,7 +2014,7 @@
         <v>0.375</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f>B26+C26</f>
         <v>44963.375</v>
       </c>
       <c r="E26" t="s">
@@ -2034,7 +2041,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="0"/>
+        <f>B27+C27</f>
         <v>44963.416666666664</v>
       </c>
       <c r="E27" t="s">
@@ -2061,7 +2068,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="0"/>
+        <f>B28+C28</f>
         <v>44963.458333333336</v>
       </c>
       <c r="E28" t="s">
@@ -2089,7 +2096,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="11">
-        <f t="shared" si="0"/>
+        <f>B29+C29</f>
         <v>44964</v>
       </c>
       <c r="H29" s="3"/>
@@ -2108,7 +2115,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="0"/>
+        <f>B30+C30</f>
         <v>44965.520833333336</v>
       </c>
       <c r="E30" t="s">
@@ -2132,7 +2139,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="0"/>
+        <f>B31+C31</f>
         <v>44965.614583333336</v>
       </c>
       <c r="E31" t="s">
@@ -2159,7 +2166,7 @@
         <v>0.5</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="0"/>
+        <f>B32+C32</f>
         <v>44966.5</v>
       </c>
       <c r="E32" t="s">
@@ -2183,7 +2190,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D33" s="11">
-        <f t="shared" si="0"/>
+        <f>B33+C33</f>
         <v>44966.645833333336</v>
       </c>
       <c r="E33" t="s">
@@ -2210,7 +2217,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" ref="D34:D65" si="1">B34+C34</f>
+        <f>B34+C34</f>
         <v>44967.583333333336</v>
       </c>
       <c r="E34" t="s">
@@ -2237,7 +2244,7 @@
         <v>0.875</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="1"/>
+        <f>B35+C35</f>
         <v>44967.875</v>
       </c>
       <c r="E35" t="s">
@@ -2261,7 +2268,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="1"/>
+        <f>B36+C36</f>
         <v>44968.458333333336</v>
       </c>
       <c r="E36" t="s">
@@ -2285,7 +2292,7 @@
         <v>0.875</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="1"/>
+        <f>B37+C37</f>
         <v>44969.875</v>
       </c>
       <c r="E37" t="s">
@@ -2306,7 +2313,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="1"/>
+        <f>B38+C38</f>
         <v>44970.673611111109</v>
       </c>
       <c r="E38" t="s">
@@ -2327,7 +2334,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="1"/>
+        <f>B39+C39</f>
         <v>44972.447916666664</v>
       </c>
       <c r="E39" t="s">
@@ -2345,7 +2352,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="1"/>
+        <f>B40+C40</f>
         <v>44973.322916666664</v>
       </c>
       <c r="E40" t="s">
@@ -2369,7 +2376,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="1"/>
+        <f>B41+C41</f>
         <v>44973.708333333336</v>
       </c>
       <c r="E41" t="s">
@@ -2393,7 +2400,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" si="1"/>
+        <f>B42+C42</f>
         <v>44973.833333333336</v>
       </c>
       <c r="E42" t="s">
@@ -2417,7 +2424,7 @@
         <v>0.625</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="1"/>
+        <f>B43+C43</f>
         <v>44974.625</v>
       </c>
       <c r="E43" t="s">
@@ -2438,7 +2445,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="1"/>
+        <f>B44+C44</f>
         <v>44975.510416666664</v>
       </c>
       <c r="E44" t="s">
@@ -2460,7 +2467,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="11">
-        <f t="shared" si="1"/>
+        <f>B45+C45</f>
         <v>44976</v>
       </c>
       <c r="H45" s="3"/>
@@ -2479,7 +2486,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="1"/>
+        <f>B46+C46</f>
         <v>44977.534722222219</v>
       </c>
       <c r="E46" t="s">
@@ -2497,7 +2504,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="1"/>
+        <f>B47+C47</f>
         <v>44977.677083333336</v>
       </c>
       <c r="E47" t="s">
@@ -2515,7 +2522,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" si="1"/>
+        <f>B48+C48</f>
         <v>44978.458333333336</v>
       </c>
       <c r="E48" t="s">
@@ -2536,7 +2543,7 @@
         <v>0.625</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="1"/>
+        <f>B49+C49</f>
         <v>44978.625</v>
       </c>
       <c r="E49" t="s">
@@ -2563,7 +2570,7 @@
         <v>0.75</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="1"/>
+        <f>B50+C50</f>
         <v>44978.75</v>
       </c>
       <c r="E50" t="s">
@@ -2587,7 +2594,7 @@
         <v>0.5</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="1"/>
+        <f>B51+C51</f>
         <v>44979.5</v>
       </c>
       <c r="E51" t="s">
@@ -2608,7 +2615,7 @@
         <v>0.75</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="1"/>
+        <f>B52+C52</f>
         <v>44979.75</v>
       </c>
       <c r="E52" t="s">
@@ -2629,7 +2636,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="1"/>
+        <f>B53+C53</f>
         <v>44980.416666666664</v>
       </c>
       <c r="E53" t="s">
@@ -2653,7 +2660,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="1"/>
+        <f>B54+C54</f>
         <v>44980.520833333336</v>
       </c>
       <c r="E54" t="s">
@@ -2674,7 +2681,7 @@
         <v>0.53125</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="1"/>
+        <f>B55+C55</f>
         <v>44981.53125</v>
       </c>
       <c r="E55" t="s">
@@ -2695,7 +2702,7 @@
         <v>0.625</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="1"/>
+        <f>B56+C56</f>
         <v>44981.625</v>
       </c>
       <c r="E56" t="s">
@@ -2717,7 +2724,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="11">
-        <f t="shared" si="1"/>
+        <f>B57+C57</f>
         <v>44982</v>
       </c>
       <c r="H57" s="3"/>
@@ -2733,7 +2740,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D58" s="11">
-        <f t="shared" si="1"/>
+        <f>B58+C58</f>
         <v>44983.541666666664</v>
       </c>
       <c r="E58" t="s">
@@ -2757,7 +2764,7 @@
         <v>0.53125</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="1"/>
+        <f>B59+C59</f>
         <v>44984.53125</v>
       </c>
       <c r="E59" t="s">
@@ -2781,7 +2788,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D60" s="11">
-        <f t="shared" si="1"/>
+        <f>B60+C60</f>
         <v>44984.635416666664</v>
       </c>
       <c r="E60" t="s">
@@ -2806,7 +2813,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="1"/>
+        <f>B61+C61</f>
         <v>44985.371527777781</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2832,7 +2839,7 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="D62" s="11">
-        <f t="shared" si="1"/>
+        <f>B62+C62</f>
         <v>44985.538194444445</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -2853,7 +2860,7 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="1"/>
+        <f>B63+C63</f>
         <v>44986.302083333336</v>
       </c>
       <c r="E63" t="s">
@@ -2877,7 +2884,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D64" s="11">
-        <f t="shared" si="1"/>
+        <f>B64+C64</f>
         <v>44986.395833333336</v>
       </c>
       <c r="E64" t="s">
@@ -2895,7 +2902,7 @@
         <v>0.53125</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" si="1"/>
+        <f>B65+C65</f>
         <v>44986.53125</v>
       </c>
       <c r="E65" t="s">
@@ -2916,7 +2923,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="D66" s="11">
-        <f t="shared" ref="D66:D71" si="2">B66+C66</f>
+        <f>B66+C66</f>
         <v>44986.576388888891</v>
       </c>
       <c r="E66" t="s">
@@ -2937,7 +2944,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="2"/>
+        <f>B67+C67</f>
         <v>44987.513888888891</v>
       </c>
       <c r="E67" t="s">
@@ -2955,7 +2962,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D68" s="11">
-        <f t="shared" si="2"/>
+        <f>B68+C68</f>
         <v>44987.673611111109</v>
       </c>
       <c r="E68" t="s">
@@ -2976,7 +2983,7 @@
         <v>0.875</v>
       </c>
       <c r="D69" s="11">
-        <f t="shared" si="2"/>
+        <f>B69+C69</f>
         <v>44987.875</v>
       </c>
       <c r="E69" t="s">
@@ -2997,7 +3004,7 @@
         <v>0.5</v>
       </c>
       <c r="D70" s="11">
-        <f t="shared" si="2"/>
+        <f>B70+C70</f>
         <v>44988.5</v>
       </c>
       <c r="E70" t="s">
@@ -3021,7 +3028,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="D71" s="11">
-        <f t="shared" si="2"/>
+        <f>B71+C71</f>
         <v>44988.715277777781</v>
       </c>
       <c r="E71" t="s">
@@ -3040,7 +3047,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="11">
-        <f t="shared" ref="D72:D79" si="3">B72+C72</f>
+        <f>B72+C72</f>
         <v>44989</v>
       </c>
       <c r="H72" s="3"/>
@@ -3056,7 +3063,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D73" s="11">
-        <f t="shared" si="3"/>
+        <f>B73+C73</f>
         <v>44990.520833333336</v>
       </c>
       <c r="E73" t="s">
@@ -3074,7 +3081,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D74" s="11">
-        <f t="shared" si="3"/>
+        <f>B74+C74</f>
         <v>44990.604166666664</v>
       </c>
       <c r="E74" t="s">
@@ -3098,7 +3105,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="3"/>
+        <f>B75+C75</f>
         <v>44990.729166666664</v>
       </c>
       <c r="E75" t="s">
@@ -3122,7 +3129,7 @@
         <v>0.875</v>
       </c>
       <c r="D76" s="11">
-        <f t="shared" si="3"/>
+        <f>B76+C76</f>
         <v>44990.875</v>
       </c>
       <c r="E76" t="s">
@@ -3146,7 +3153,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="3"/>
+        <f>B77+C77</f>
         <v>44991.583333333336</v>
       </c>
       <c r="E77" t="s">
@@ -3170,7 +3177,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D78" s="11">
-        <f t="shared" si="3"/>
+        <f>B78+C78</f>
         <v>44992.520833333336</v>
       </c>
       <c r="E78" t="s">
@@ -3188,7 +3195,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D79" s="11">
-        <f t="shared" si="3"/>
+        <f>B79+C79</f>
         <v>44992.583333333336</v>
       </c>
       <c r="E79" t="s">
@@ -3218,7 +3225,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D80" s="11">
-        <f t="shared" ref="D80:D89" si="4">B80+C80</f>
+        <f>B80+C80</f>
         <v>44993.541666666664</v>
       </c>
       <c r="E80" t="s">
@@ -3236,7 +3243,7 @@
         <v>0.53125</v>
       </c>
       <c r="D81" s="11">
-        <f t="shared" si="4"/>
+        <f>B81+C81</f>
         <v>44994.53125</v>
       </c>
       <c r="E81" t="s">
@@ -3254,7 +3261,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D82" s="11">
-        <f t="shared" si="4"/>
+        <f>B82+C82</f>
         <v>44994.583333333336</v>
       </c>
       <c r="E82" t="s">
@@ -3272,7 +3279,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D83" s="11">
-        <f t="shared" si="4"/>
+        <f>B83+C83</f>
         <v>44994.680555555555</v>
       </c>
       <c r="E83" t="s">
@@ -3290,7 +3297,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="4"/>
+        <f>B84+C84</f>
         <v>44995.597222222219</v>
       </c>
       <c r="E84" t="s">
@@ -3311,7 +3318,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D85" s="11">
-        <f t="shared" si="4"/>
+        <f>B85+C85</f>
         <v>44996.458333333336</v>
       </c>
       <c r="E85" t="s">
@@ -3332,7 +3339,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D86" s="11">
-        <f t="shared" si="4"/>
+        <f>B86+C86</f>
         <v>44996.572916666664</v>
       </c>
       <c r="E86" t="s">
@@ -3356,7 +3363,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" si="4"/>
+        <f>B87+C87</f>
         <v>44997.572916666664</v>
       </c>
       <c r="E87" t="s">
@@ -3380,7 +3387,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" si="4"/>
+        <f>B88+C88</f>
         <v>44997.770833333336</v>
       </c>
       <c r="E88" t="s">
@@ -3404,7 +3411,7 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="D89" s="11">
-        <f t="shared" si="4"/>
+        <f>B89+C89</f>
         <v>44998.586805555555</v>
       </c>
       <c r="E89" t="s">
@@ -3422,7 +3429,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" ref="D90:D104" si="5">B90+C90</f>
+        <f>B90+C90</f>
         <v>44999.583333333336</v>
       </c>
       <c r="E90" t="s">
@@ -3452,7 +3459,7 @@
         <v>0.5625</v>
       </c>
       <c r="D91" s="11">
-        <f t="shared" si="5"/>
+        <f>B91+C91</f>
         <v>45000.5625</v>
       </c>
       <c r="E91" t="s">
@@ -3470,7 +3477,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="D92" s="11">
-        <f t="shared" si="5"/>
+        <f>B92+C92</f>
         <v>45001.548611111109</v>
       </c>
       <c r="E92" t="s">
@@ -3491,7 +3498,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="5"/>
+        <f>B93+C93</f>
         <v>45002.430555555555</v>
       </c>
       <c r="E93" t="s">
@@ -3512,7 +3519,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="D94" s="11">
-        <f t="shared" si="5"/>
+        <f>B94+C94</f>
         <v>45002.597222222219</v>
       </c>
       <c r="E94" t="s">
@@ -3530,7 +3537,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" si="5"/>
+        <f>B95+C95</f>
         <v>45002.645833333336</v>
       </c>
       <c r="E95" t="s">
@@ -3552,7 +3559,7 @@
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="11">
-        <f t="shared" si="5"/>
+        <f>B96+C96</f>
         <v>45003</v>
       </c>
       <c r="H96" s="3"/>
@@ -3565,7 +3572,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D97" s="11">
-        <f t="shared" si="5"/>
+        <f>B97+C97</f>
         <v>45004.604166666664</v>
       </c>
       <c r="E97" t="s">
@@ -3586,7 +3593,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D98" s="11">
-        <f t="shared" si="5"/>
+        <f>B98+C98</f>
         <v>45005.416666666664</v>
       </c>
       <c r="E98" t="s">
@@ -3604,7 +3611,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D99" s="11">
-        <f t="shared" si="5"/>
+        <f>B99+C99</f>
         <v>45005.534722222219</v>
       </c>
       <c r="E99" t="s">
@@ -3622,7 +3629,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D100" s="11">
-        <f t="shared" si="5"/>
+        <f>B100+C100</f>
         <v>45006.572916666664</v>
       </c>
       <c r="E100" t="s">
@@ -3640,7 +3647,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D101" s="11">
-        <f t="shared" si="5"/>
+        <f>B101+C101</f>
         <v>45006.645833333336</v>
       </c>
       <c r="E101" t="s">
@@ -3664,7 +3671,7 @@
         <v>0.625</v>
       </c>
       <c r="D102" s="11">
-        <f t="shared" si="5"/>
+        <f>B102+C102</f>
         <v>45007.625</v>
       </c>
       <c r="E102" t="s">
@@ -3688,7 +3695,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D103" s="11">
-        <f t="shared" si="5"/>
+        <f>B103+C103</f>
         <v>45007.791666666664</v>
       </c>
       <c r="E103" t="s">
@@ -3709,7 +3716,7 @@
         <v>0.625</v>
       </c>
       <c r="D104" s="11">
-        <f t="shared" si="5"/>
+        <f>B104+C104</f>
         <v>45008.625</v>
       </c>
       <c r="E104" t="s">
@@ -3730,7 +3737,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D105" s="11">
-        <f t="shared" ref="D105:D113" si="6">B105+C105</f>
+        <f>B105+C105</f>
         <v>45009.541666666664</v>
       </c>
       <c r="E105" t="s">
@@ -3754,7 +3761,7 @@
         <v>0.625</v>
       </c>
       <c r="D106" s="11">
-        <f t="shared" si="6"/>
+        <f>B106+C106</f>
         <v>45009.625</v>
       </c>
       <c r="E106" t="s">
@@ -3779,7 +3786,7 @@
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="11">
-        <f t="shared" si="6"/>
+        <f>B107+C107</f>
         <v>45010</v>
       </c>
       <c r="H107" s="3"/>
@@ -3795,7 +3802,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D108" s="11">
-        <f t="shared" si="6"/>
+        <f>B108+C108</f>
         <v>45011.458333333336</v>
       </c>
       <c r="E108" t="s">
@@ -3813,7 +3820,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D109" s="11">
-        <f t="shared" si="6"/>
+        <f>B109+C109</f>
         <v>45011.791666666664</v>
       </c>
       <c r="E109" t="s">
@@ -3831,7 +3838,7 @@
         <v>0.5625</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" si="6"/>
+        <f>B110+C110</f>
         <v>45012.5625</v>
       </c>
       <c r="E110" t="s">
@@ -3852,7 +3859,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D111" s="11">
-        <f t="shared" si="6"/>
+        <f>B111+C111</f>
         <v>45012.791666666664</v>
       </c>
       <c r="E111" t="s">
@@ -3873,7 +3880,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D112" s="11">
-        <f t="shared" si="6"/>
+        <f>B112+C112</f>
         <v>45013.541666666664</v>
       </c>
       <c r="E112" t="s">
@@ -3894,7 +3901,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D113" s="11">
-        <f t="shared" si="6"/>
+        <f>B113+C113</f>
         <v>45013.604166666664</v>
       </c>
       <c r="E113" t="s">
@@ -3936,7 +3943,7 @@
         <v>0.5</v>
       </c>
       <c r="D115" s="16">
-        <f t="shared" ref="D115:D178" si="7">B115+C115</f>
+        <f>B115+C115</f>
         <v>45014.5</v>
       </c>
       <c r="E115" t="s">
@@ -3954,7 +3961,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D116" s="16">
-        <f t="shared" si="7"/>
+        <f>B116+C116</f>
         <v>45015.395833333336</v>
       </c>
       <c r="E116" t="s">
@@ -3975,7 +3982,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D117" s="16">
-        <f t="shared" si="7"/>
+        <f>B117+C117</f>
         <v>45015.645833333336</v>
       </c>
       <c r="E117" t="s">
@@ -3993,7 +4000,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D118" s="16">
-        <f t="shared" si="7"/>
+        <f>B118+C118</f>
         <v>45015.739583333336</v>
       </c>
       <c r="E118" t="s">
@@ -4014,7 +4021,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D119" s="16">
-        <f t="shared" si="7"/>
+        <f>B119+C119</f>
         <v>45016.458333333336</v>
       </c>
       <c r="E119" t="s">
@@ -4035,7 +4042,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D120" s="16">
-        <f t="shared" si="7"/>
+        <f>B120+C120</f>
         <v>45016.541666666664</v>
       </c>
       <c r="E120" t="s">
@@ -4059,7 +4066,7 @@
         <v>0.625</v>
       </c>
       <c r="D121" s="16">
-        <f t="shared" si="7"/>
+        <f>B121+C121</f>
         <v>45016.625</v>
       </c>
       <c r="E121" t="s">
@@ -4080,7 +4087,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D122" s="16">
-        <f t="shared" si="7"/>
+        <f>B122+C122</f>
         <v>45017.611111111109</v>
       </c>
       <c r="E122" t="s">
@@ -4101,7 +4108,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D123" s="16">
-        <f t="shared" si="7"/>
+        <f>B123+C123</f>
         <v>45018.604166666664</v>
       </c>
       <c r="E123" t="s">
@@ -4122,7 +4129,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D124" s="16">
-        <f t="shared" si="7"/>
+        <f>B124+C124</f>
         <v>45019.614583333336</v>
       </c>
       <c r="E124" t="s">
@@ -4140,7 +4147,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="D125" s="16">
-        <f t="shared" si="7"/>
+        <f>B125+C125</f>
         <v>45020.513888888891</v>
       </c>
       <c r="E125" t="s">
@@ -4161,7 +4168,7 @@
         <v>0.60763888888888895</v>
       </c>
       <c r="D126" s="16">
-        <f t="shared" si="7"/>
+        <f>B126+C126</f>
         <v>45020.607638888891</v>
       </c>
       <c r="E126" t="s">
@@ -4182,7 +4189,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D127" s="16">
-        <f t="shared" si="7"/>
+        <f>B127+C127</f>
         <v>45020.739583333336</v>
       </c>
       <c r="E127" t="s">
@@ -4200,7 +4207,7 @@
         <v>0.375</v>
       </c>
       <c r="D128" s="16">
-        <f t="shared" si="7"/>
+        <f>B128+C128</f>
         <v>45021.375</v>
       </c>
       <c r="E128" t="s">
@@ -4221,7 +4228,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D129" s="16">
-        <f t="shared" si="7"/>
+        <f>B129+C129</f>
         <v>45021.527777777781</v>
       </c>
       <c r="E129" t="s">
@@ -4239,7 +4246,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D130" s="16">
-        <f t="shared" si="7"/>
+        <f>B130+C130</f>
         <v>45021.583333333336</v>
       </c>
       <c r="E130" t="s">
@@ -4263,7 +4270,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D131" s="16">
-        <f t="shared" si="7"/>
+        <f>B131+C131</f>
         <v>45021.604166666664</v>
       </c>
       <c r="E131" t="s">
@@ -4287,7 +4294,7 @@
         <v>0.875</v>
       </c>
       <c r="D132" s="16">
-        <f t="shared" si="7"/>
+        <f>B132+C132</f>
         <v>45021.875</v>
       </c>
       <c r="E132" t="s">
@@ -4314,7 +4321,7 @@
         <v>0.6875</v>
       </c>
       <c r="D133" s="16">
-        <f t="shared" si="7"/>
+        <f>B133+C133</f>
         <v>45022.6875</v>
       </c>
       <c r="E133" t="s">
@@ -4332,7 +4339,7 @@
         <v>0.875</v>
       </c>
       <c r="D134" s="16">
-        <f t="shared" si="7"/>
+        <f>B134+C134</f>
         <v>45023.875</v>
       </c>
       <c r="E134" t="s">
@@ -4353,7 +4360,7 @@
         <v>0.84375</v>
       </c>
       <c r="D135" s="16">
-        <f t="shared" si="7"/>
+        <f>B135+C135</f>
         <v>45024.84375</v>
       </c>
       <c r="E135" t="s">
@@ -4377,7 +4384,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D136" s="16">
-        <f t="shared" si="7"/>
+        <f>B136+C136</f>
         <v>45025.614583333336</v>
       </c>
       <c r="E136" t="s">
@@ -4401,7 +4408,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="D137" s="16">
-        <f t="shared" si="7"/>
+        <f>B137+C137</f>
         <v>45026.465277777781</v>
       </c>
       <c r="E137" t="s">
@@ -4422,7 +4429,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D138" s="16">
-        <f t="shared" si="7"/>
+        <f>B138+C138</f>
         <v>45026.583333333336</v>
       </c>
       <c r="E138" t="s">
@@ -4443,7 +4450,7 @@
         <v>0.6875</v>
       </c>
       <c r="D139" s="16">
-        <f t="shared" si="7"/>
+        <f>B139+C139</f>
         <v>45026.6875</v>
       </c>
       <c r="E139" t="s">
@@ -4464,7 +4471,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D140" s="16">
-        <f t="shared" si="7"/>
+        <f>B140+C140</f>
         <v>45027.833333333336</v>
       </c>
       <c r="E140" t="s">
@@ -4482,7 +4489,7 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="D141" s="16">
-        <f t="shared" si="7"/>
+        <f>B141+C141</f>
         <v>45028.767361111109</v>
       </c>
       <c r="E141" t="s">
@@ -4500,7 +4507,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D142" s="16">
-        <f t="shared" si="7"/>
+        <f>B142+C142</f>
         <v>45028.833333333336</v>
       </c>
       <c r="E142" t="s">
@@ -4524,7 +4531,7 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="D143" s="16">
-        <f t="shared" si="7"/>
+        <f>B143+C143</f>
         <v>45029.586805555555</v>
       </c>
       <c r="E143" t="s">
@@ -4542,7 +4549,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D144" s="16">
-        <f t="shared" si="7"/>
+        <f>B144+C144</f>
         <v>45029.697916666664</v>
       </c>
       <c r="E144" t="s">
@@ -4560,7 +4567,7 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="D145" s="16">
-        <f t="shared" si="7"/>
+        <f>B145+C145</f>
         <v>45030.399305555555</v>
       </c>
       <c r="E145" t="s">
@@ -4578,7 +4585,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="D146" s="16">
-        <f t="shared" si="7"/>
+        <f>B146+C146</f>
         <v>45030.590277777781</v>
       </c>
       <c r="E146" t="s">
@@ -4599,7 +4606,7 @@
         <v>0.375</v>
       </c>
       <c r="D147" s="16">
-        <f t="shared" si="7"/>
+        <f>B147+C147</f>
         <v>45031.375</v>
       </c>
       <c r="E147" t="s">
@@ -4617,7 +4624,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D148" s="16">
-        <f t="shared" si="7"/>
+        <f>B148+C148</f>
         <v>45031.583333333336</v>
       </c>
       <c r="E148" t="s">
@@ -4644,7 +4651,7 @@
         <v>0.375</v>
       </c>
       <c r="D149" s="16">
-        <f t="shared" si="7"/>
+        <f>B149+C149</f>
         <v>45032.375</v>
       </c>
       <c r="E149" t="s">
@@ -4668,7 +4675,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D150" s="16">
-        <f t="shared" si="7"/>
+        <f>B150+C150</f>
         <v>45032.604166666664</v>
       </c>
       <c r="E150" t="s">
@@ -4693,7 +4700,7 @@
         <v>0.3125</v>
       </c>
       <c r="D151" s="16">
-        <f t="shared" si="7"/>
+        <f>B151+C151</f>
         <v>45033.3125</v>
       </c>
       <c r="E151" t="s">
@@ -4717,7 +4724,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D152" s="16">
-        <f t="shared" si="7"/>
+        <f>B152+C152</f>
         <v>45033.541666666664</v>
       </c>
       <c r="E152" t="s">
@@ -4741,7 +4748,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D153" s="16">
-        <f t="shared" si="7"/>
+        <f>B153+C153</f>
         <v>45033.666666666664</v>
       </c>
       <c r="E153" t="s">
@@ -4768,7 +4775,7 @@
         <v>0.53125</v>
       </c>
       <c r="D154" s="16">
-        <f t="shared" si="7"/>
+        <f>B154+C154</f>
         <v>45034.53125</v>
       </c>
       <c r="E154" t="s">
@@ -4788,17 +4795,17 @@
         <v>45034</v>
       </c>
       <c r="C155" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.65625</v>
       </c>
       <c r="D155" s="16">
-        <f t="shared" si="7"/>
-        <v>45034.666666666664</v>
+        <f>B155+C155</f>
+        <v>45034.65625</v>
       </c>
       <c r="E155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H155" s="3">
-        <v>2.0833333333333332E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.75">
@@ -4806,17 +4813,17 @@
         <v>45034</v>
       </c>
       <c r="C156" s="3">
-        <v>0.65625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="16">
-        <f t="shared" si="7"/>
-        <v>45034.65625</v>
+        <f>B156+C156</f>
+        <v>45034.666666666664</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H156" s="3">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.75">
@@ -4827,7 +4834,7 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="D157" s="16">
-        <f t="shared" si="7"/>
+        <f>B157+C157</f>
         <v>45034.701388888891</v>
       </c>
       <c r="E157" t="s">
@@ -4842,26 +4849,20 @@
         <v>45035</v>
       </c>
       <c r="C158" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D158" s="16">
-        <f t="shared" si="7"/>
-        <v>45035.708333333336</v>
+        <f>B158+C158</f>
+        <v>45035.375</v>
       </c>
       <c r="E158" t="s">
         <v>152</v>
       </c>
       <c r="H158" s="3">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J158" t="s">
-        <v>166</v>
-      </c>
-      <c r="K158" t="s">
-        <v>16</v>
-      </c>
-      <c r="L158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.75">
@@ -4869,20 +4870,26 @@
         <v>45035</v>
       </c>
       <c r="C159" s="3">
-        <v>0.375</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D159" s="16">
-        <f t="shared" si="7"/>
-        <v>45035.375</v>
+        <f>B159+C159</f>
+        <v>45035.708333333336</v>
       </c>
       <c r="E159" t="s">
         <v>152</v>
       </c>
       <c r="H159" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="J159" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.75">
@@ -4893,7 +4900,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D160" s="16">
-        <f t="shared" si="7"/>
+        <f>B160+C160</f>
         <v>45036.631944444445</v>
       </c>
       <c r="E160" t="s">
@@ -4911,12 +4918,13 @@
         <v>0.3125</v>
       </c>
       <c r="D161" s="16">
-        <f t="shared" si="7"/>
+        <f>B161+C161</f>
         <v>45037.3125</v>
       </c>
       <c r="E161" t="s">
         <v>168</v>
       </c>
+      <c r="H161" s="3"/>
       <c r="I161" t="s">
         <v>169</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>0.375</v>
       </c>
       <c r="D162" s="16">
-        <f t="shared" si="7"/>
+        <f>B162+C162</f>
         <v>45037.375</v>
       </c>
       <c r="E162" t="s">
@@ -4947,7 +4955,7 @@
         <v>0.40625</v>
       </c>
       <c r="D163" s="16">
-        <f t="shared" si="7"/>
+        <f>B163+C163</f>
         <v>45037.40625</v>
       </c>
       <c r="E163" t="s">
@@ -4965,7 +4973,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="D164" s="16">
-        <f t="shared" si="7"/>
+        <f>B164+C164</f>
         <v>45037.663194444445</v>
       </c>
       <c r="E164" t="s">
@@ -4983,7 +4991,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="D165" s="16">
-        <f t="shared" si="7"/>
+        <f>B165+C165</f>
         <v>45038.548611111109</v>
       </c>
       <c r="E165" t="s">
@@ -5007,7 +5015,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D166" s="16">
-        <f t="shared" si="7"/>
+        <f>B166+C166</f>
         <v>45039.614583333336</v>
       </c>
       <c r="E166" t="s">
@@ -5025,7 +5033,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D167" s="16">
-        <f t="shared" si="7"/>
+        <f>B167+C167</f>
         <v>45040.611111111109</v>
       </c>
       <c r="E167" t="s">
@@ -5043,7 +5051,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D168" s="16">
-        <f t="shared" si="7"/>
+        <f>B168+C168</f>
         <v>45041.583333333336</v>
       </c>
       <c r="E168" t="s">
@@ -5067,7 +5075,7 @@
         <v>0.5</v>
       </c>
       <c r="D169" s="16">
-        <f t="shared" si="7"/>
+        <f>B169+C169</f>
         <v>45042.5</v>
       </c>
       <c r="E169" t="s">
@@ -5084,10 +5092,12 @@
       <c r="B170" s="1">
         <v>45043</v>
       </c>
+      <c r="C170" s="3"/>
       <c r="D170" s="16">
-        <f t="shared" si="7"/>
+        <f>B170+C170</f>
         <v>45043</v>
       </c>
+      <c r="H170" s="3"/>
       <c r="J170" t="s">
         <v>241</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D171" s="16">
-        <f t="shared" si="7"/>
+        <f>B171+C171</f>
         <v>45044.458333333336</v>
       </c>
       <c r="E171" t="s">
@@ -5118,7 +5128,7 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="D172" s="16">
-        <f t="shared" si="7"/>
+        <f>B172+C172</f>
         <v>45045.368055555555</v>
       </c>
       <c r="E172" t="s">
@@ -5145,7 +5155,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D173" s="16">
-        <f t="shared" si="7"/>
+        <f>B173+C173</f>
         <v>45045.388888888891</v>
       </c>
       <c r="E173" t="s">
@@ -5163,7 +5173,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D174" s="16">
-        <f t="shared" si="7"/>
+        <f>B174+C174</f>
         <v>45046.666666666664</v>
       </c>
       <c r="E174" t="s">
@@ -5181,7 +5191,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D175" s="16">
-        <f t="shared" si="7"/>
+        <f>B175+C175</f>
         <v>45047.666666666664</v>
       </c>
       <c r="E175" t="s">
@@ -5199,7 +5209,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D176" s="16">
-        <f t="shared" si="7"/>
+        <f>B176+C176</f>
         <v>45048.416666666664</v>
       </c>
       <c r="E176" t="s">
@@ -5220,7 +5230,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="D177" s="16">
-        <f t="shared" si="7"/>
+        <f>B177+C177</f>
         <v>45049.576388888891</v>
       </c>
       <c r="E177" t="s">
@@ -5241,7 +5251,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D178" s="16">
-        <f t="shared" si="7"/>
+        <f>B178+C178</f>
         <v>45050.520833333336</v>
       </c>
       <c r="E178" t="s">
@@ -5262,7 +5272,7 @@
         <v>0.6875</v>
       </c>
       <c r="D179" s="16">
-        <f t="shared" ref="D179:D242" si="8">B179+C179</f>
+        <f>B179+C179</f>
         <v>45050.6875</v>
       </c>
       <c r="E179" t="s">
@@ -5283,7 +5293,7 @@
         <v>0.78125</v>
       </c>
       <c r="D180" s="16">
-        <f t="shared" si="8"/>
+        <f>B180+C180</f>
         <v>45051.78125</v>
       </c>
       <c r="E180" t="s">
@@ -5303,10 +5313,12 @@
       <c r="B181" s="1">
         <v>45052</v>
       </c>
+      <c r="C181" s="3"/>
       <c r="D181" s="16">
-        <f t="shared" si="8"/>
+        <f>B181+C181</f>
         <v>45052</v>
       </c>
+      <c r="H181" s="3"/>
       <c r="J181" t="s">
         <v>181</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D182" s="16">
-        <f t="shared" si="8"/>
+        <f>B182+C182</f>
         <v>45053.631944444445</v>
       </c>
       <c r="E182" t="s">
@@ -5340,7 +5352,7 @@
         <v>0.375</v>
       </c>
       <c r="D183" s="16">
-        <f t="shared" si="8"/>
+        <f>B183+C183</f>
         <v>45054.375</v>
       </c>
       <c r="E183" t="s">
@@ -5364,7 +5376,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D184" s="16">
-        <f t="shared" si="8"/>
+        <f>B184+C184</f>
         <v>45054.604166666664</v>
       </c>
       <c r="E184" t="s">
@@ -5385,7 +5397,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D185" s="16">
-        <f t="shared" si="8"/>
+        <f>B185+C185</f>
         <v>45054.743055555555</v>
       </c>
       <c r="E185" t="s">
@@ -5412,7 +5424,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D186" s="16">
-        <f t="shared" si="8"/>
+        <f>B186+C186</f>
         <v>45055.614583333336</v>
       </c>
       <c r="E186" t="s">
@@ -5430,7 +5442,7 @@
         <v>0.8125</v>
       </c>
       <c r="D187" s="16">
-        <f t="shared" si="8"/>
+        <f>B187+C187</f>
         <v>45055.8125</v>
       </c>
       <c r="E187" t="s">
@@ -5454,7 +5466,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D188" s="16">
-        <f t="shared" si="8"/>
+        <f>B188+C188</f>
         <v>45056.583333333336</v>
       </c>
       <c r="E188" t="s">
@@ -5472,7 +5484,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D189" s="16">
-        <f t="shared" si="8"/>
+        <f>B189+C189</f>
         <v>45056.729166666664</v>
       </c>
       <c r="E189" t="s">
@@ -5493,7 +5505,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D190" s="16">
-        <f t="shared" si="8"/>
+        <f>B190+C190</f>
         <v>45056.770833333336</v>
       </c>
       <c r="E190" t="s">
@@ -5511,7 +5523,7 @@
         <v>0.34375</v>
       </c>
       <c r="D191" s="16">
-        <f t="shared" si="8"/>
+        <f>B191+C191</f>
         <v>45057.34375</v>
       </c>
       <c r="E191" t="s">
@@ -5535,7 +5547,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D192" s="16">
-        <f t="shared" si="8"/>
+        <f>B192+C192</f>
         <v>45058.659722222219</v>
       </c>
       <c r="E192" t="s">
@@ -5559,12 +5571,13 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D193" s="16">
-        <f t="shared" si="8"/>
+        <f>B193+C193</f>
         <v>45059.697916666664</v>
       </c>
       <c r="E193" t="s">
         <v>196</v>
       </c>
+      <c r="H193" s="3"/>
       <c r="I193" t="s">
         <v>198</v>
       </c>
@@ -5580,7 +5593,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D194" s="16">
-        <f t="shared" si="8"/>
+        <f>B194+C194</f>
         <v>45059.739583333336</v>
       </c>
       <c r="E194" t="s">
@@ -5601,7 +5614,7 @@
         <v>0.5625</v>
       </c>
       <c r="D195" s="16">
-        <f t="shared" si="8"/>
+        <f>B195+C195</f>
         <v>45060.5625</v>
       </c>
       <c r="E195" t="s">
@@ -5625,7 +5638,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="D196" s="16">
-        <f t="shared" si="8"/>
+        <f>B196+C196</f>
         <v>45061.590277777781</v>
       </c>
       <c r="E196" t="s">
@@ -5646,7 +5659,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D197" s="16">
-        <f t="shared" si="8"/>
+        <f>B197+C197</f>
         <v>45061.895833333336</v>
       </c>
       <c r="E197" t="s">
@@ -5670,7 +5683,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D198" s="16">
-        <f t="shared" si="8"/>
+        <f>B198+C198</f>
         <v>45062.416666666664</v>
       </c>
       <c r="E198" t="s">
@@ -5691,7 +5704,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="D199" s="16">
-        <f t="shared" si="8"/>
+        <f>B199+C199</f>
         <v>45063.513888888891</v>
       </c>
       <c r="E199" t="s">
@@ -5712,7 +5725,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="D200" s="16">
-        <f t="shared" si="8"/>
+        <f>B200+C200</f>
         <v>45063.621527777781</v>
       </c>
       <c r="E200" t="s">
@@ -5736,7 +5749,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D201" s="16">
-        <f t="shared" si="8"/>
+        <f>B201+C201</f>
         <v>45063.743055555555</v>
       </c>
       <c r="E201" t="s">
@@ -5760,7 +5773,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="D202" s="16">
-        <f t="shared" si="8"/>
+        <f>B202+C202</f>
         <v>45063.784722222219</v>
       </c>
       <c r="E202" t="s">
@@ -5781,7 +5794,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D203" s="16">
-        <f t="shared" si="8"/>
+        <f>B203+C203</f>
         <v>45064.395833333336</v>
       </c>
       <c r="E203" t="s">
@@ -5802,7 +5815,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D204" s="16">
-        <f t="shared" si="8"/>
+        <f>B204+C204</f>
         <v>45064.506944444445</v>
       </c>
       <c r="E204" t="s">
@@ -5823,7 +5836,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="D205" s="16">
-        <f t="shared" si="8"/>
+        <f>B205+C205</f>
         <v>45064.725694444445</v>
       </c>
       <c r="E205" t="s">
@@ -5847,7 +5860,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D206" s="16">
-        <f t="shared" si="8"/>
+        <f>B206+C206</f>
         <v>45065.583333333336</v>
       </c>
       <c r="E206" t="s">
@@ -5868,7 +5881,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D207" s="16">
-        <f t="shared" si="8"/>
+        <f>B207+C207</f>
         <v>45065.791666666664</v>
       </c>
       <c r="E207" t="s">
@@ -5889,7 +5902,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D208" s="16">
-        <f t="shared" si="8"/>
+        <f>B208+C208</f>
         <v>45066.673611111109</v>
       </c>
       <c r="E208" t="s">
@@ -5910,7 +5923,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D209" s="16">
-        <f t="shared" si="8"/>
+        <f>B209+C209</f>
         <v>45067.611111111109</v>
       </c>
       <c r="E209" t="s">
@@ -5931,7 +5944,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D210" s="16">
-        <f t="shared" si="8"/>
+        <f>B210+C210</f>
         <v>45068.458333333336</v>
       </c>
       <c r="E210" t="s">
@@ -5952,7 +5965,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="D211" s="16">
-        <f t="shared" si="8"/>
+        <f>B211+C211</f>
         <v>45068.576388888891</v>
       </c>
       <c r="E211" t="s">
@@ -5973,7 +5986,7 @@
         <v>0.71875</v>
       </c>
       <c r="D212" s="16">
-        <f t="shared" si="8"/>
+        <f>B212+C212</f>
         <v>45068.71875</v>
       </c>
       <c r="E212" t="s">
@@ -5994,7 +6007,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D213" s="16">
-        <f t="shared" si="8"/>
+        <f>B213+C213</f>
         <v>45068.739583333336</v>
       </c>
       <c r="E213" t="s">
@@ -6015,7 +6028,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D214" s="16">
-        <f t="shared" si="8"/>
+        <f>B214+C214</f>
         <v>45069.541666666664</v>
       </c>
       <c r="E214" t="s">
@@ -6036,7 +6049,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D215" s="16">
-        <f t="shared" si="8"/>
+        <f>B215+C215</f>
         <v>45069.659722222219</v>
       </c>
       <c r="E215" t="s">
@@ -6057,7 +6070,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D216" s="16">
-        <f t="shared" si="8"/>
+        <f>B216+C216</f>
         <v>45070.333333333336</v>
       </c>
       <c r="E216" t="s">
@@ -6078,7 +6091,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D217" s="16">
-        <f t="shared" si="8"/>
+        <f>B217+C217</f>
         <v>45070.479166666664</v>
       </c>
       <c r="E217" t="s">
@@ -6099,7 +6112,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="D218" s="16">
-        <f t="shared" si="8"/>
+        <f>B218+C218</f>
         <v>45070.784722222219</v>
       </c>
       <c r="E218" t="s">
@@ -6126,7 +6139,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D219" s="16">
-        <f t="shared" si="8"/>
+        <f>B219+C219</f>
         <v>45071.545138888891</v>
       </c>
       <c r="E219" t="s">
@@ -6147,7 +6160,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="D220" s="16">
-        <f t="shared" si="8"/>
+        <f>B220+C220</f>
         <v>45071.572916666664</v>
       </c>
       <c r="E220" t="s">
@@ -6168,7 +6181,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D221" s="16">
-        <f t="shared" si="8"/>
+        <f>B221+C221</f>
         <v>45071.791666666664</v>
       </c>
       <c r="E221" t="s">
@@ -6195,7 +6208,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D222" s="16">
-        <f t="shared" si="8"/>
+        <f>B222+C222</f>
         <v>45072.489583333336</v>
       </c>
       <c r="E222" t="s">
@@ -6216,7 +6229,7 @@
         <v>0.625</v>
       </c>
       <c r="D223" s="16">
-        <f t="shared" si="8"/>
+        <f>B223+C223</f>
         <v>45072.625</v>
       </c>
       <c r="E223" t="s">
@@ -6237,7 +6250,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D224" s="16">
-        <f t="shared" si="8"/>
+        <f>B224+C224</f>
         <v>45072.822916666664</v>
       </c>
       <c r="E224" t="s">
@@ -6258,7 +6271,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D225" s="16">
-        <f t="shared" si="8"/>
+        <f>B225+C225</f>
         <v>45073.666666666664</v>
       </c>
       <c r="E225" t="s">
@@ -6281,10 +6294,12 @@
       <c r="B226" s="1">
         <v>45074</v>
       </c>
+      <c r="C226" s="3"/>
       <c r="D226" s="16">
-        <f t="shared" si="8"/>
+        <f>B226+C226</f>
         <v>45074</v>
       </c>
+      <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B227" s="1">
@@ -6294,7 +6309,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="D227" s="16">
-        <f t="shared" si="8"/>
+        <f>B227+C227</f>
         <v>45075.569444444445</v>
       </c>
       <c r="E227" t="s">
@@ -6315,7 +6330,7 @@
         <v>0.5</v>
       </c>
       <c r="D228" s="16">
-        <f t="shared" si="8"/>
+        <f>B228+C228</f>
         <v>45076.5</v>
       </c>
       <c r="E228" t="s">
@@ -6336,7 +6351,7 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="D229" s="16">
-        <f t="shared" si="8"/>
+        <f>B229+C229</f>
         <v>45076.664583333331</v>
       </c>
       <c r="E229" t="s">
@@ -6357,7 +6372,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="D230" s="16">
-        <f t="shared" si="8"/>
+        <f>B230+C230</f>
         <v>45076.784722222219</v>
       </c>
       <c r="E230" t="s">
@@ -6378,7 +6393,7 @@
         <v>0.375</v>
       </c>
       <c r="D231" s="16">
-        <f t="shared" si="8"/>
+        <f>B231+C231</f>
         <v>45077.375</v>
       </c>
       <c r="E231" t="s">
@@ -6399,7 +6414,7 @@
         <v>0.4375</v>
       </c>
       <c r="D232" s="16">
-        <f t="shared" si="8"/>
+        <f>B232+C232</f>
         <v>45077.4375</v>
       </c>
       <c r="E232" t="s">
@@ -6420,7 +6435,7 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="D233" s="16">
-        <f t="shared" si="8"/>
+        <f>B233+C233</f>
         <v>45077.496527777781</v>
       </c>
       <c r="E233" t="s">
@@ -6441,7 +6456,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D234" s="16">
-        <f t="shared" si="8"/>
+        <f>B234+C234</f>
         <v>45078.392361111109</v>
       </c>
       <c r="E234" t="s">
@@ -6462,7 +6477,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D235" s="16">
-        <f t="shared" si="8"/>
+        <f>B235+C235</f>
         <v>45078.583333333336</v>
       </c>
       <c r="E235" t="s">
@@ -6485,10 +6500,12 @@
       <c r="B236" s="1">
         <v>45079</v>
       </c>
+      <c r="C236" s="3"/>
       <c r="D236" s="16">
-        <f t="shared" si="8"/>
+        <f>B236+C236</f>
         <v>45079</v>
       </c>
+      <c r="H236" s="3"/>
       <c r="L236" t="s">
         <v>218</v>
       </c>
@@ -6501,7 +6518,7 @@
         <v>0.375</v>
       </c>
       <c r="D237" s="16">
-        <f t="shared" si="8"/>
+        <f>B237+C237</f>
         <v>45080.375</v>
       </c>
       <c r="E237" t="s">
@@ -6522,7 +6539,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D238" s="16">
-        <f t="shared" si="8"/>
+        <f>B238+C238</f>
         <v>45080.489583333336</v>
       </c>
       <c r="E238" t="s">
@@ -6546,7 +6563,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="D239" s="16">
-        <f t="shared" si="8"/>
+        <f>B239+C239</f>
         <v>45080.756249999999</v>
       </c>
       <c r="E239" t="s">
@@ -6566,10 +6583,12 @@
       <c r="B240" s="1">
         <v>45081</v>
       </c>
+      <c r="C240" s="3"/>
       <c r="D240" s="16">
-        <f t="shared" si="8"/>
+        <f>B240+C240</f>
         <v>45081</v>
       </c>
+      <c r="H240" s="3"/>
       <c r="J240" t="s">
         <v>212</v>
       </c>
@@ -6582,7 +6601,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="D241" s="16">
-        <f t="shared" si="8"/>
+        <f>B241+C241</f>
         <v>45082.513888888891</v>
       </c>
       <c r="E241" t="s">
@@ -6606,7 +6625,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="D242" s="16">
-        <f t="shared" si="8"/>
+        <f>B242+C242</f>
         <v>45082.524305555555</v>
       </c>
       <c r="E242" t="s">
@@ -6630,7 +6649,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D243" s="16">
-        <f t="shared" ref="D243:D282" si="9">B243+C243</f>
+        <f>B243+C243</f>
         <v>45083.604166666664</v>
       </c>
       <c r="E243" t="s">
@@ -6657,7 +6676,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="D244" s="16">
-        <f t="shared" si="9"/>
+        <f>B244+C244</f>
         <v>45084.618055555555</v>
       </c>
       <c r="E244" t="s">
@@ -6677,10 +6696,12 @@
       <c r="B245" s="1">
         <v>45085</v>
       </c>
+      <c r="C245" s="3"/>
       <c r="D245" s="16">
-        <f t="shared" si="9"/>
+        <f>B245+C245</f>
         <v>45085</v>
       </c>
+      <c r="H245" s="3"/>
       <c r="J245" t="s">
         <v>216</v>
       </c>
@@ -6692,10 +6713,12 @@
       <c r="B246" s="1">
         <v>45086</v>
       </c>
+      <c r="C246" s="3"/>
       <c r="D246" s="16">
-        <f t="shared" si="9"/>
+        <f>B246+C246</f>
         <v>45086</v>
       </c>
+      <c r="H246" s="3"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
@@ -6704,10 +6727,12 @@
       <c r="B247" s="1">
         <v>45087</v>
       </c>
+      <c r="C247" s="3"/>
       <c r="D247" s="16">
-        <f t="shared" si="9"/>
+        <f>B247+C247</f>
         <v>45087</v>
       </c>
+      <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
@@ -6720,7 +6745,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="D248" s="16">
-        <f t="shared" si="9"/>
+        <f>B248+C248</f>
         <v>45088.590277777781</v>
       </c>
       <c r="E248" t="s">
@@ -6747,7 +6772,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D249" s="16">
-        <f t="shared" si="9"/>
+        <f>B249+C249</f>
         <v>45089.541666666664</v>
       </c>
       <c r="E249" t="s">
@@ -6768,7 +6793,7 @@
         <v>0.6875</v>
       </c>
       <c r="D250" s="16">
-        <f t="shared" si="9"/>
+        <f>B250+C250</f>
         <v>45089.6875</v>
       </c>
       <c r="E250" t="s">
@@ -6789,7 +6814,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D251" s="16">
-        <f t="shared" si="9"/>
+        <f>B251+C251</f>
         <v>45090.614583333336</v>
       </c>
       <c r="E251" t="s">
@@ -6813,7 +6838,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D252" s="16">
-        <f t="shared" si="9"/>
+        <f>B252+C252</f>
         <v>45090.854166666664</v>
       </c>
       <c r="E252" t="s">
@@ -6837,7 +6862,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="D253" s="16">
-        <f t="shared" si="9"/>
+        <f>B253+C253</f>
         <v>45091.618055555555</v>
       </c>
       <c r="E253" t="s">
@@ -6858,7 +6883,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D254" s="16">
-        <f t="shared" si="9"/>
+        <f>B254+C254</f>
         <v>45091.680555555555</v>
       </c>
       <c r="E254" t="s">
@@ -6879,7 +6904,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D255" s="16">
-        <f t="shared" si="9"/>
+        <f>B255+C255</f>
         <v>45092.510416666664</v>
       </c>
       <c r="E255" t="s">
@@ -6900,7 +6925,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D256" s="16">
-        <f t="shared" si="9"/>
+        <f>B256+C256</f>
         <v>45092.666666666664</v>
       </c>
       <c r="E256" t="s">
@@ -6921,7 +6946,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D257" s="16">
-        <f t="shared" si="9"/>
+        <f>B257+C257</f>
         <v>45092.729166666664</v>
       </c>
       <c r="E257" t="s">
@@ -6945,7 +6970,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D258" s="16">
-        <f t="shared" si="9"/>
+        <f>B258+C258</f>
         <v>45093.583333333336</v>
       </c>
       <c r="E258" t="s">
@@ -6972,7 +6997,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D259" s="16">
-        <f t="shared" si="9"/>
+        <f>B259+C259</f>
         <v>45093.729166666664</v>
       </c>
       <c r="E259" t="s">
@@ -6996,7 +7021,7 @@
         <v>0.59375</v>
       </c>
       <c r="D260" s="16">
-        <f t="shared" si="9"/>
+        <f>B260+C260</f>
         <v>45094.59375</v>
       </c>
       <c r="E260" t="s">
@@ -7020,7 +7045,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D261" s="16">
-        <f t="shared" si="9"/>
+        <f>B261+C261</f>
         <v>45095.541666666664</v>
       </c>
       <c r="E261" t="s">
@@ -7044,7 +7069,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D262" s="16">
-        <f t="shared" si="9"/>
+        <f>B262+C262</f>
         <v>45096.583333333336</v>
       </c>
       <c r="E262" t="s">
@@ -7071,7 +7096,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D263" s="16">
-        <f t="shared" si="9"/>
+        <f>B263+C263</f>
         <v>45097.583333333336</v>
       </c>
       <c r="E263" t="s">
@@ -7097,10 +7122,12 @@
       <c r="B264" s="1">
         <v>45098</v>
       </c>
+      <c r="C264" s="3"/>
       <c r="D264" s="16">
-        <f t="shared" si="9"/>
+        <f>B264+C264</f>
         <v>45098</v>
       </c>
+      <c r="H264" s="3"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B265" s="1">
@@ -7110,7 +7137,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="D265" s="16">
-        <f t="shared" si="9"/>
+        <f>B265+C265</f>
         <v>45099.548611111109</v>
       </c>
       <c r="E265" t="s">
@@ -7131,7 +7158,7 @@
         <v>0.6875</v>
       </c>
       <c r="D266" s="16">
-        <f t="shared" si="9"/>
+        <f>B266+C266</f>
         <v>45099.6875</v>
       </c>
       <c r="E266" t="s">
@@ -7161,7 +7188,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D267" s="16">
-        <f t="shared" si="9"/>
+        <f>B267+C267</f>
         <v>45099.791666666664</v>
       </c>
       <c r="E267" t="s">
@@ -7191,7 +7218,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D268" s="16">
-        <f t="shared" si="9"/>
+        <f>B268+C268</f>
         <v>45099.854166666664</v>
       </c>
       <c r="E268" t="s">
@@ -7221,7 +7248,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D269" s="16">
-        <f t="shared" si="9"/>
+        <f>B269+C269</f>
         <v>45100.666666666664</v>
       </c>
       <c r="E269" t="s">
@@ -7245,7 +7272,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="D270" s="16">
-        <f t="shared" si="9"/>
+        <f>B270+C270</f>
         <v>45101.576388888891</v>
       </c>
       <c r="E270" t="s">
@@ -7265,10 +7292,12 @@
       <c r="B271" s="1">
         <v>45102</v>
       </c>
+      <c r="C271" s="3"/>
       <c r="D271" s="16">
-        <f t="shared" si="9"/>
+        <f>B271+C271</f>
         <v>45102</v>
       </c>
+      <c r="H271" s="3"/>
       <c r="J271" t="s">
         <v>238</v>
       </c>
@@ -7281,7 +7310,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="D272" s="16">
-        <f t="shared" si="9"/>
+        <f>B272+C272</f>
         <v>45103.534722222219</v>
       </c>
       <c r="E272" t="s">
@@ -7302,7 +7331,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="D273" s="16">
-        <f t="shared" si="9"/>
+        <f>B273+C273</f>
         <v>45103.805555555555</v>
       </c>
       <c r="E273" t="s">
@@ -7326,7 +7355,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D274" s="16">
-        <f t="shared" si="9"/>
+        <f>B274+C274</f>
         <v>45104.527777777781</v>
       </c>
       <c r="E274" t="s">
@@ -7347,7 +7376,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="D275" s="16">
-        <f t="shared" si="9"/>
+        <f>B275+C275</f>
         <v>45105.524305555555</v>
       </c>
       <c r="E275" t="s">
@@ -7368,7 +7397,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D276" s="16">
-        <f t="shared" si="9"/>
+        <f>B276+C276</f>
         <v>45106.520833333336</v>
       </c>
       <c r="E276" t="s">
@@ -7392,7 +7421,7 @@
         <v>0.5</v>
       </c>
       <c r="D277" s="16">
-        <f t="shared" si="9"/>
+        <f>B277+C277</f>
         <v>45107.5</v>
       </c>
       <c r="E277" t="s">
@@ -7413,7 +7442,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D278" s="16">
-        <f t="shared" si="9"/>
+        <f>B278+C278</f>
         <v>45107.708333333336</v>
       </c>
       <c r="E278" t="s">
@@ -7437,7 +7466,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D279" s="16">
-        <f t="shared" si="9"/>
+        <f>B279+C279</f>
         <v>45108.510416666664</v>
       </c>
       <c r="E279" t="s">
@@ -7458,7 +7487,7 @@
         <v>0.625</v>
       </c>
       <c r="D280" s="16">
-        <f t="shared" si="9"/>
+        <f>B280+C280</f>
         <v>45108.625</v>
       </c>
       <c r="E280" t="s">
@@ -7485,7 +7514,7 @@
         <v>0.53125</v>
       </c>
       <c r="D281" s="11">
-        <f t="shared" si="9"/>
+        <f>B281+C281</f>
         <v>45109.53125</v>
       </c>
       <c r="E281" t="s">
@@ -7506,7 +7535,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="D282" s="11">
-        <f t="shared" si="9"/>
+        <f>B282+C282</f>
         <v>45109.847222222219</v>
       </c>
       <c r="E282" t="s">
@@ -7532,6 +7561,12 @@
       <c r="B283" s="1">
         <v>45110</v>
       </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="11">
+        <f>B283+C283</f>
+        <v>45110</v>
+      </c>
+      <c r="H283" s="3"/>
       <c r="J283" t="s">
         <v>248</v>
       </c>
@@ -7543,6 +7578,12 @@
       <c r="B284" s="1">
         <v>45111</v>
       </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="11">
+        <f>B284+C284</f>
+        <v>45111</v>
+      </c>
+      <c r="H284" s="3"/>
       <c r="J284" t="s">
         <v>248</v>
       </c>
@@ -7554,6 +7595,10 @@
       <c r="C285" s="3">
         <v>0.27083333333333331</v>
       </c>
+      <c r="D285" s="11">
+        <f>B285+C285</f>
+        <v>45112.270833333336</v>
+      </c>
       <c r="E285" t="s">
         <v>152</v>
       </c>
@@ -7574,6 +7619,10 @@
       <c r="C286" s="3">
         <v>0.71875</v>
       </c>
+      <c r="D286" s="11">
+        <f>B286+C286</f>
+        <v>45112.71875</v>
+      </c>
       <c r="E286" t="s">
         <v>152</v>
       </c>
@@ -7594,6 +7643,10 @@
       <c r="C287" s="3">
         <v>0.74305555555555547</v>
       </c>
+      <c r="D287" s="11">
+        <f>B287+C287</f>
+        <v>45113.743055555555</v>
+      </c>
       <c r="E287" t="s">
         <v>152</v>
       </c>
@@ -7614,6 +7667,10 @@
       <c r="C288" s="3">
         <v>0.28472222222222221</v>
       </c>
+      <c r="D288" s="11">
+        <f>B288+C288</f>
+        <v>45114.284722222219</v>
+      </c>
       <c r="E288" t="s">
         <v>152</v>
       </c>
@@ -7634,6 +7691,12 @@
       <c r="B289" s="1">
         <v>45115</v>
       </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="11">
+        <f>B289+C289</f>
+        <v>45115</v>
+      </c>
+      <c r="H289" s="3"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B290" s="1">
@@ -7642,6 +7705,10 @@
       <c r="C290" s="3">
         <v>0.49305555555555558</v>
       </c>
+      <c r="D290" s="11">
+        <f>B290+C290</f>
+        <v>45116.493055555555</v>
+      </c>
       <c r="E290" t="s">
         <v>153</v>
       </c>
@@ -7659,6 +7726,10 @@
       <c r="C291" s="3">
         <v>0.71527777777777779</v>
       </c>
+      <c r="D291" s="11">
+        <f>B291+C291</f>
+        <v>45116.715277777781</v>
+      </c>
       <c r="E291" t="s">
         <v>152</v>
       </c>
@@ -7682,6 +7753,10 @@
       <c r="C292" s="3">
         <v>0.51388888888888895</v>
       </c>
+      <c r="D292" s="11">
+        <f>B292+C292</f>
+        <v>45117.513888888891</v>
+      </c>
       <c r="E292" t="s">
         <v>239</v>
       </c>
@@ -7702,6 +7777,10 @@
       <c r="C293" s="3">
         <v>0.51388888888888895</v>
       </c>
+      <c r="D293" s="11">
+        <f>B293+C293</f>
+        <v>45118.513888888891</v>
+      </c>
       <c r="E293" t="s">
         <v>239</v>
       </c>
@@ -7719,6 +7798,10 @@
       <c r="C294" s="3">
         <v>0.61805555555555558</v>
       </c>
+      <c r="D294" s="11">
+        <f>B294+C294</f>
+        <v>45118.618055555555</v>
+      </c>
       <c r="E294" t="s">
         <v>152</v>
       </c>
@@ -7736,6 +7819,10 @@
       <c r="C295" s="3">
         <v>0.51736111111111105</v>
       </c>
+      <c r="D295" s="11">
+        <f>B295+C295</f>
+        <v>45119.517361111109</v>
+      </c>
       <c r="E295" t="s">
         <v>239</v>
       </c>
@@ -7750,6 +7837,12 @@
       <c r="B296" s="1">
         <v>45120</v>
       </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="11">
+        <f>B296+C296</f>
+        <v>45120</v>
+      </c>
+      <c r="H296" s="3"/>
       <c r="J296" t="s">
         <v>256</v>
       </c>
@@ -7761,6 +7854,12 @@
       <c r="B297" s="1">
         <v>45121</v>
       </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="11">
+        <f>B297+C297</f>
+        <v>45121</v>
+      </c>
+      <c r="H297" s="3"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.75">
       <c r="B298" s="1">
@@ -7769,6 +7868,10 @@
       <c r="C298" s="3">
         <v>0.65972222222222221</v>
       </c>
+      <c r="D298" s="11">
+        <f>B298+C298</f>
+        <v>45122.659722222219</v>
+      </c>
       <c r="E298" t="s">
         <v>152</v>
       </c>
@@ -7786,6 +7889,12 @@
       <c r="B299" s="1">
         <v>45123</v>
       </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="11">
+        <f>B299+C299</f>
+        <v>45123</v>
+      </c>
+      <c r="H299" s="3"/>
       <c r="J299" t="s">
         <v>257</v>
       </c>
@@ -7797,6 +7906,10 @@
       <c r="C300" s="3">
         <v>0.52430555555555558</v>
       </c>
+      <c r="D300" s="11">
+        <f>B300+C300</f>
+        <v>45124.524305555555</v>
+      </c>
       <c r="E300" t="s">
         <v>239</v>
       </c>
@@ -7817,6 +7930,10 @@
       <c r="C301" s="3">
         <v>0.875</v>
       </c>
+      <c r="D301" s="11">
+        <f>B301+C301</f>
+        <v>45124.875</v>
+      </c>
       <c r="E301" t="s">
         <v>152</v>
       </c>
@@ -7840,6 +7957,10 @@
       <c r="C302" s="3">
         <v>0.49305555555555558</v>
       </c>
+      <c r="D302" s="11">
+        <f>B302+C302</f>
+        <v>45125.493055555555</v>
+      </c>
       <c r="E302" t="s">
         <v>152</v>
       </c>
@@ -7857,6 +7978,10 @@
       <c r="C303" s="3">
         <v>0.6875</v>
       </c>
+      <c r="D303" s="11">
+        <f>B303+C303</f>
+        <v>45125.6875</v>
+      </c>
       <c r="E303" t="s">
         <v>152</v>
       </c>
@@ -7872,19 +7997,26 @@
         <v>45126</v>
       </c>
       <c r="C304" s="3">
-        <v>0.53125</v>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D304" s="11">
+        <f>B304+C304</f>
+        <v>45126.222222222219</v>
       </c>
       <c r="E304" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="G304" t="s">
         <v>194</v>
       </c>
       <c r="H304" s="3">
-        <v>1.0416666666666666E-2</v>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="I304" t="s">
+        <v>263</v>
       </c>
       <c r="J304" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.75">
@@ -7892,22 +8024,23 @@
         <v>45126</v>
       </c>
       <c r="C305" s="3">
-        <v>0.22222222222222221</v>
+        <v>0.53125</v>
+      </c>
+      <c r="D305" s="11">
+        <f>B305+C305</f>
+        <v>45126.53125</v>
       </c>
       <c r="E305" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="G305" t="s">
         <v>194</v>
       </c>
       <c r="H305" s="3">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="I305" t="s">
-        <v>263</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="J305" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.75">
@@ -7917,6 +8050,10 @@
       <c r="C306" s="3">
         <v>0.58333333333333337</v>
       </c>
+      <c r="D306" s="11">
+        <f>B306+C306</f>
+        <v>45127.583333333336</v>
+      </c>
       <c r="E306" t="s">
         <v>153</v>
       </c>
@@ -7937,6 +8074,10 @@
       <c r="C307" s="3">
         <v>0.65277777777777779</v>
       </c>
+      <c r="D307" s="11">
+        <f>B307+C307</f>
+        <v>45128.652777777781</v>
+      </c>
       <c r="E307" t="s">
         <v>152</v>
       </c>
@@ -7957,6 +8098,10 @@
       <c r="C308" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D308" s="11">
+        <f>B308+C308</f>
+        <v>45129.541666666664</v>
+      </c>
       <c r="E308" t="s">
         <v>239</v>
       </c>
@@ -7974,6 +8119,10 @@
       <c r="C309" s="3">
         <v>0.5625</v>
       </c>
+      <c r="D309" s="11">
+        <f>B309+C309</f>
+        <v>45129.5625</v>
+      </c>
       <c r="E309" t="s">
         <v>152</v>
       </c>
@@ -7991,6 +8140,10 @@
       <c r="C310" s="3">
         <v>0.70833333333333337</v>
       </c>
+      <c r="D310" s="11">
+        <f>B310+C310</f>
+        <v>45130.708333333336</v>
+      </c>
       <c r="E310" t="s">
         <v>152</v>
       </c>
@@ -8012,6 +8165,10 @@
         <v>45131</v>
       </c>
       <c r="C311" s="3"/>
+      <c r="D311" s="11">
+        <f>B311+C311</f>
+        <v>45131</v>
+      </c>
       <c r="E311" t="s">
         <v>271</v>
       </c>
@@ -8027,6 +8184,10 @@
       <c r="C312" s="3">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D312" s="11">
+        <f>B312+C312</f>
+        <v>45131.541666666664</v>
+      </c>
       <c r="E312" t="s">
         <v>152</v>
       </c>
@@ -8050,6 +8211,10 @@
       <c r="C313" s="3">
         <v>0.8125</v>
       </c>
+      <c r="D313" s="11">
+        <f>B313+C313</f>
+        <v>45131.8125</v>
+      </c>
       <c r="E313" t="s">
         <v>153</v>
       </c>
@@ -8070,6 +8235,10 @@
       <c r="C314" s="3">
         <v>0.125</v>
       </c>
+      <c r="D314" s="11">
+        <f>B314+C314</f>
+        <v>45132.125</v>
+      </c>
       <c r="E314" t="s">
         <v>153</v>
       </c>
@@ -8087,6 +8256,10 @@
       <c r="C315" s="3">
         <v>0.73611111111111116</v>
       </c>
+      <c r="D315" s="11">
+        <f>B315+C315</f>
+        <v>45132.736111111109</v>
+      </c>
       <c r="E315" t="s">
         <v>152</v>
       </c>
@@ -8107,6 +8280,12 @@
       <c r="B316" s="1">
         <v>45133</v>
       </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="11">
+        <f>B316+C316</f>
+        <v>45133</v>
+      </c>
+      <c r="H316" s="3"/>
       <c r="J316" t="s">
         <v>275</v>
       </c>
@@ -8118,6 +8297,10 @@
       <c r="C317" s="3">
         <v>0.52083333333333337</v>
       </c>
+      <c r="D317" s="11">
+        <f>B317+C317</f>
+        <v>45133.520833333336</v>
+      </c>
       <c r="E317" t="s">
         <v>239</v>
       </c>
@@ -8141,6 +8324,12 @@
       <c r="B318" s="1">
         <v>45134</v>
       </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="11">
+        <f>B318+C318</f>
+        <v>45134</v>
+      </c>
+      <c r="H318" s="3"/>
       <c r="J318" t="s">
         <v>276</v>
       </c>
@@ -8151,6 +8340,10 @@
       </c>
       <c r="C319" s="3">
         <v>0.50347222222222221</v>
+      </c>
+      <c r="D319" s="17">
+        <f>B319+C319</f>
+        <v>45135.503472222219</v>
       </c>
       <c r="E319" t="s">
         <v>239</v>
